--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 6/NKSX_TG102LE-4G_240622.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/XuatNhapKho/Nhập Kho 2022/Tháng 6/NKSX_TG102LE-4G_240622.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Duc\Desktop\Du lieu\Duc\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho\Nhập Kho 2022\Tháng 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\XuatNhapKho\Nhập Kho 2022\Tháng 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A796A85-BA73-4B8E-8E3A-56617E7D810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="BM.01" sheetId="1" r:id="rId1"/>
@@ -121,9 +120,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -325,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -374,7 +373,37 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -404,42 +433,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -474,7 +473,7 @@
         <xdr:cNvPr id="1185" name="Picture 1" descr="logo chuan ">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-0000A1040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -526,7 +525,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -637,23 +636,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -689,23 +671,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -881,11 +846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -908,57 +873,57 @@
   <sheetData>
     <row r="1" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="19" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="27" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="27"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="27" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="27"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="27" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="27"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1016,29 +981,29 @@
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26" t="s">
+      <c r="H8" s="36"/>
+      <c r="I8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="36"/>
       <c r="M8" s="5" t="s">
         <v>3</v>
       </c>
@@ -1047,26 +1012,26 @@
       <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="16">
         <v>500</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18" t="s">
+      <c r="L9" s="25"/>
+      <c r="M9" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1074,26 +1039,26 @@
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="16">
         <v>100</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
@@ -1111,50 +1076,50 @@
       <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="34" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="31" t="s">
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="35"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M13" s="36"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -1202,27 +1167,27 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="37"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F18" s="11"/>
@@ -1241,21 +1206,6 @@
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F17:G17"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E2:K4"/>
     <mergeCell ref="A2:D4"/>
@@ -1271,10 +1221,25 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M9:M10"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
